--- a/CreateTeconReports/result.xlsx
+++ b/CreateTeconReports/result.xlsx
@@ -34,13 +34,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,8 +67,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -362,7 +367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,53 +375,69 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Picture_QF3</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Тест QF3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Отключен</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Picture_QF</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Тест QF2</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Включен</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Picture_VV</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Тест VV</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Выключатель. Двойное положение</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>ДУ. Включено</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>Тележка. Выкачена</t>
         </is>
@@ -433,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,653 +462,924 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF01</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF02</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF02</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF03</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF03</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF04</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF04</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF05</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF05</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF06</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF06</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF07</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF07</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF08</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF08</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF09</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF09</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF10</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF10</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF11</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF11</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF12</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF12</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF13</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF13</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF14</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF14</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF15</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF15</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF16</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF16</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF17</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF17</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF18</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF18</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF19</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF19</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF20</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF20</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF21</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF21</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF22</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF22</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF23</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF23</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF24</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF24</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF25</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF25</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF26</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF26</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF27</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF27</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF28</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF28</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF29</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF29</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF30</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF30</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF31</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF31</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF32</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF32</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF33</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF33</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF34</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF34</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF35</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF35</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF36</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF36</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF37</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF37</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF38</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF38</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF39</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF39</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF40</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF40</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF41</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF41</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF42</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF42</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF43</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF43</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF44</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF44</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF45</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF45</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF46</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF46</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF47</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF47</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF48</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF48</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF49</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF49</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF50</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF50</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF51</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF51</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF52</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF52</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF53</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF53</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>GP0021_KTP01_QF54</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF54</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -1104,7 +1396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,389 +1404,550 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF01</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF02</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF02</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF03</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF03</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF04</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF04</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF05</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF05</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF06</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF06</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF07</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF07</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF08</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF08</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF09</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF09</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF10</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF10</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF11</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF11</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF12</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF12</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF13</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF13</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF14</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF14</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF15</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF15</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF16</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF16</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF17</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF17</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF18</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF18</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF19</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF19</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF20</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF20</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF21</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF21</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF22</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF22</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF23</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF23</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF24</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF24</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF25</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF25</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF26</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF26</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF27</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF27</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF28</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF28</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF29</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF29</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF30</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF30</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF31</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF31</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP01_QF32</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF32</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -1511,7 +1964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1519,389 +1972,550 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF01</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF02</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF02</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF03</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF03</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF04</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF04</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF05</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF05</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF06</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF06</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF07</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF07</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF08</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF08</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF09</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF09</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF10</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF10</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF11</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF11</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF12</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF12</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF13</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF13</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF14</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF14</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF15</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF15</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF16</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF16</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF17</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF17</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF18</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF18</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF19</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF19</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF20</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF20</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF21</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF21</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF22</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF22</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF23</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF23</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF24</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF24</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF25</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF25</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF26</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF26</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF27</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF27</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF28</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF28</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF29</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF29</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF30</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF30</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF31</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF31</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>GP0022_KTP02_QF32</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF32</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -1918,7 +2532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1926,257 +2540,363 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_VV1_ISA</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ввод 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_VV2_ISA</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Ввод 2</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_SV_ISA</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Секционный выключатель</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL07_ISA</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 07</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL08_ISA</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 08</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL09_ISA</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 09</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL10_ISA</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 10</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL11_ISA</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 11</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL12_ISA</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 12</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL13_ISA</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 13</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL14_ISA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 14</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL15_ISA</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 15</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL16_ISA</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 16</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL17_ISA</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 17</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL18_ISA</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 18</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL19_ISA</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 19</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL20_ISA</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 20</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL21_ISA</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 21</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL22_ISA</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 22</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL24_ISA</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 24</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>GP0022_ZRU10_OL23_ISA</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель ОЛ 23</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -2193,7 +2913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2201,485 +2921,686 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF01</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF02</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF02</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF03</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF03</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF04</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF04</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF05</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF05</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF06</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF06</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF07</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF07</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF08</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF08</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF09</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF09</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF10</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF10</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF11</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF11</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF12</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF12</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF13</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF13</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF14</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF14</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF15</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF15</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF16</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF16</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF17</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF17</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF18</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF18</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF19</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF19</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF20</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF20</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF21</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF21</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF22</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF22</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF23</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF23</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF24</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF24</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF25</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF25</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF26</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF26</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF27</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF27</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF28</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF28</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF29</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF29</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF30</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF30</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF31</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF31</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF32</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF32</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF33</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF33</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF34</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF34</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF35</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF35</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF36</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF36</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF37</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF37</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_QF38</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF38</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_4QF</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 4QF</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>GP0063_KTP_5QF</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 5QF</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -2696,7 +3617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2704,29 +3625,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0070_1SH70_1_AVR_AV</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1ШЩ70. АВР АВ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0070_1SH70_2_AVR_AV</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1ШЩ70. АВР АВ</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -2743,7 +3675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2751,29 +3683,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0071_1SH71_1_AVR_AV</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1ШЩ71. АВР АВ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0071_1SH71_2_AVR_AV</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1ШЩ71. АВР АВ</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -2790,7 +3733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2798,485 +3741,686 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF01</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF02</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF02</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF03</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF03</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF04</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF04</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF05</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF05</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF06</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF06</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF07</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF07</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF08</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF08</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF09</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF09</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF10</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF10</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF11</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF11</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF12</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF12</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF13</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF13</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF14</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF14</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF15</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF15</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF16</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF16</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF17</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF17</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF18</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF18</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF19</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF19</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF20</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF20</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF21</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF21</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF22</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF22</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF23</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF23</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF24</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF24</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF25</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF25</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF26</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF26</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF27</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF27</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF28</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF28</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF29</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF29</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF30</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF30</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF31</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF31</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF32</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF32</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF33</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF33</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF34</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF34</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF35</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF35</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF36</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF36</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF37</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF37</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_QF38</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF38</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_5QF</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 5QF</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>GP0081_KTP_6QF</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 6QF</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -3311,7 +4455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3319,401 +4463,567 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_9QF</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 9QF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_6QF</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 6QF</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_1QF</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 1QF</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_3QF</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 3QF</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_8QF</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 8QF</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_2QF</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 2QF</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_4QF</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 4QF</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_10QF</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 10QF</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF1</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF1</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF2</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF2</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF3</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF4</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF4</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF5</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF6</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF6</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF7</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF7</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF8</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF8</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_1QS</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 1QS</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_Q1</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель Q1</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_5QF</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 5QF</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_3QS</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 3QS</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_5QS</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 5QS</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_7QF</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 7QF</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_4QS</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 4QS</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_6QS</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 6QS</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF9</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF9</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF10</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF10</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF11</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF11</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF12</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF12</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF13</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF13</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF14</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF14</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF15</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF15</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_QF16</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF16</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT2_2QS</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель 2QS</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -3730,7 +5040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3738,41 +5048,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0022_1SHSH22_1QF</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>РУ0,4кВ. 1ШЩ-22. Ввод №1 1QF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0022_1SHSH22_2QF</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>РУ0,4кВ. 1ШЩ-22. Ввод №2 2QF</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0022_1SHSH22_3QF</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>РУ0,4кВ. 1ШЩ-22. Секционный выключатель 3QF</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -3789,7 +5115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3797,821 +5123,1162 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_1QF</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ШВВ. Выключатель 1QF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_2QF</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>ШВВ. Выключатель 2QF</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_4QF</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>ШВВ. Выключатель 4QF</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_5QF</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>ШВВ. Выключатель 5QF</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_6QF</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>ШВВ. Выключатель 6QF</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_7QF</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>ШВВ. Выключатель 7QF</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_8QF</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>ШВВ. Выключатель 8QF</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_1QF1</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>ШПН3. Выключатель 1QF1</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_1QF2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>ШПН3. Выключатель 1QF2</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_1QF3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>ШПН3. Выключатель 1QF3</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_2QF1</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>ШПН4. Выключатель 2QF1</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_2QF2</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>ШПН4. Выключатель 2QF2</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_2QF3</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>ШПН4. Выключатель 2QF3</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF1</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF1</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF2</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF2</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF3</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF3</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF4</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF4</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF5</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF5</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF6</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF6</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF7</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF7</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF8</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF8</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF9</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF9</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF10</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF10</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF11</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF11</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF12</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF12</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF13</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF13</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF14</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF14</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF15</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF15</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF16</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF16</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF17</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF17</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF18</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF18</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF19</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF19</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF20</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF20</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF21</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QF21</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QS1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ1. Выключатель QS1</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF22</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF22</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF23</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF23</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF24</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF24</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF25</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF25</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF26</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF26</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF27</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF27</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF28</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF28</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF29</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF29</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF30</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF30</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF31</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF31</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF32</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF32</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF33</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF33</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF34</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF34</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF35</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF35</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF36</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF36</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF37</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF37</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF38</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF38</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF39</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF39</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF40</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF40</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF41</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF41</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QF42</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QF42</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_QS2</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ШОЛ2. Выключатель QS2</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_3QF</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ШВВ. Выключатель 3QF</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_1QW1</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ШПН3. Выключатель 1QW1</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_1QW2</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ШПН3. Выключатель 1QW2</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_1QW3</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ШПН3. Выключатель 1QW3</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_1QW4</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ШПН3. Выключатель 1QW4</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_1QW5</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ШПН3. Выключатель 1QW5</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_2QW1</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ШПН4. Выключатель 2QW1</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_2QW2</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ШПН4. Выключатель 2QW2</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_2QW3</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ШПН4. Выключатель 2QW3</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_2QW4</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>ШПН4. Выключатель 2QW4</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>GP0022_SHPT1_2QW5</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>ШПН4. Выключатель 2QW5</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -4628,7 +6295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4636,41 +6303,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0022_2SHSH22_1QF</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>РУ0,4кВ. 2ШЩ-22.Ввод №1 1QF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0022_2SHSH22_2QF</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>РУ0,4кВ. 2ШЩ-22. Ввод №2 3QF</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0022_2SHSH22_3QF</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>РУ0,4кВ. 2ШЩ-22. Секционный выключатель QF3</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -4687,7 +6370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4695,113 +6378,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0022_IBP1_QF1</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0022_IBP1_QF2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF2</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0022_IBP1_QF3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF3</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>GP0022_IBP1_QF6</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF6</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>GP0022_IBP1_QF7</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF7</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>GP0022_IBP1_QF5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QF5</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>GP0022_IBP1_QW1</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QW1</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>GP0022_IBP1_QW3</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QW3</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>GP0022_IBP1_QW4</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Выключатель QW4</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -4818,7 +6547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4826,41 +6555,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0021_1SHSH21_1QF</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>РУ0,4кВ. 1ШЩ-21. Ввод №1 1QF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0021_1SHSH21_2QF</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>РУ0,4кВ. 1ШЩ-21. Ввод №2 2QF</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0021_1SHSH21_3QF</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>РУ0,4кВ. 1ШЩ-21. Секционный выключатель 3QF</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -4877,7 +6622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4885,41 +6630,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0041_1SHSH41_1QF</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>РУ0,4кВ. 1ШЩ-41. Ввод №1 1QF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0041_1SHSH41_2QF</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>РУ0,4кВ. 1ШЩ-41. Ввод №2 2QF</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>GP0041_1SHSH41_3QF</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>РУ0,4кВ. 1ШЩ-41. Секционный выключатель 3QF</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
@@ -4936,7 +6697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,29 +6705,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GP0011_1SH11_1_AVR_AV</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1ШЩ11. АВР АВ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>GP0011_1SH11_2_AVR_AV</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1ШЩ11. АВР АВ</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Нет данных в архиве</t>
         </is>
